--- a/docentes/González Nuñez Veronica - Estadisticos 20202.xlsx
+++ b/docentes/González Nuñez Veronica - Estadisticos 20202.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="48">
   <si>
     <t>Mat</t>
   </si>
@@ -91,16 +91,76 @@
     <t>TEXCAHUA</t>
   </si>
   <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>PAZ</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>BONILLA</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>SANTILLANA</t>
+  </si>
+  <si>
     <t>CORTES</t>
   </si>
   <si>
     <t>DE LA LUZ</t>
   </si>
   <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>MONTERROSAS</t>
+  </si>
+  <si>
+    <t>BAEZ</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
     <t>ARTURO</t>
   </si>
   <si>
     <t>ASHLEY ZURELY</t>
+  </si>
+  <si>
+    <t>JESUS MANUEL</t>
+  </si>
+  <si>
+    <t>GABRIELA</t>
+  </si>
+  <si>
+    <t>ANDREA YAMILET</t>
+  </si>
+  <si>
+    <t>ABIGAIL</t>
+  </si>
+  <si>
+    <t>MISAEL</t>
+  </si>
+  <si>
+    <t>JOSE EMMANUEL</t>
+  </si>
+  <si>
+    <t>MONSERRAT</t>
+  </si>
+  <si>
+    <t>CESAR GAEL</t>
   </si>
 </sst>
 </file>
@@ -504,16 +564,16 @@
         <v>40</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2">
-        <v>95</v>
+        <v>97.5</v>
       </c>
       <c r="H2">
         <v>7.1</v>
@@ -608,10 +668,10 @@
         <v>39</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>34</v>
@@ -620,7 +680,7 @@
         <v>87.18000000000001</v>
       </c>
       <c r="H6">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -634,16 +694,16 @@
         <v>34</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G7">
-        <v>82.34999999999999</v>
+        <v>85.29000000000001</v>
       </c>
       <c r="H7">
         <v>7</v>
@@ -702,19 +762,19 @@
         <v>40</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G2">
-        <v>77.5</v>
+        <v>92.5</v>
       </c>
       <c r="H2">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -806,10 +866,10 @@
         <v>39</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>32</v>
@@ -832,16 +892,16 @@
         <v>34</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="F7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7">
-        <v>76.47</v>
+        <v>79.41</v>
       </c>
       <c r="H7">
         <v>7</v>
@@ -900,19 +960,19 @@
         <v>40</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2">
-        <v>95</v>
+        <v>97.5</v>
       </c>
       <c r="H2">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1004,16 +1064,16 @@
         <v>39</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6">
-        <v>87.18000000000001</v>
+        <v>89.73999999999999</v>
       </c>
       <c r="H6">
         <v>8.1</v>
@@ -1030,16 +1090,16 @@
         <v>34</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7">
-        <v>85.29000000000001</v>
+        <v>88.23999999999999</v>
       </c>
       <c r="H7">
         <v>7.5</v>
@@ -1052,7 +1112,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1093,10 +1153,10 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -1116,10 +1176,10 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -1129,6 +1189,190 @@
       </c>
       <c r="G3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>19330051920332</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>19330051920334</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>19330051920342</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>19330051920350</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>19330051920354</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>19330051920247</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>19330051920407</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>19330051920412</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/González Nuñez Veronica - Estadisticos 20202.xlsx
+++ b/docentes/González Nuñez Veronica - Estadisticos 20202.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="41">
   <si>
     <t>Mat</t>
   </si>
@@ -103,15 +103,6 @@
     <t>XOTLANIHUA</t>
   </si>
   <si>
-    <t>BONILLA</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
-    <t>SANTILLANA</t>
-  </si>
-  <si>
     <t>CORTES</t>
   </si>
   <si>
@@ -130,9 +121,6 @@
     <t>PEREZ</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
     <t>ARTURO</t>
   </si>
   <si>
@@ -152,15 +140,6 @@
   </si>
   <si>
     <t>MISAEL</t>
-  </si>
-  <si>
-    <t>JOSE EMMANUEL</t>
-  </si>
-  <si>
-    <t>MONSERRAT</t>
-  </si>
-  <si>
-    <t>CESAR GAEL</t>
   </si>
 </sst>
 </file>
@@ -668,16 +647,16 @@
         <v>39</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6">
-        <v>87.18000000000001</v>
+        <v>89.73999999999999</v>
       </c>
       <c r="H6">
         <v>7.4</v>
@@ -694,19 +673,19 @@
         <v>34</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G7">
-        <v>85.29000000000001</v>
+        <v>97.06</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>6.9</v>
       </c>
     </row>
   </sheetData>
@@ -866,19 +845,19 @@
         <v>39</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6">
-        <v>82.05</v>
+        <v>84.62</v>
       </c>
       <c r="H6">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -892,19 +871,19 @@
         <v>34</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G7">
-        <v>79.41</v>
+        <v>100</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>6.9</v>
       </c>
     </row>
   </sheetData>
@@ -1064,19 +1043,19 @@
         <v>39</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6">
-        <v>89.73999999999999</v>
+        <v>92.31</v>
       </c>
       <c r="H6">
-        <v>8.1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1090,19 +1069,19 @@
         <v>34</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G7">
-        <v>88.23999999999999</v>
+        <v>100</v>
       </c>
       <c r="H7">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
     </row>
   </sheetData>
@@ -1112,7 +1091,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1153,10 +1132,10 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -1176,10 +1155,10 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -1199,10 +1178,10 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -1222,10 +1201,10 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -1245,10 +1224,10 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -1268,10 +1247,10 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -1291,10 +1270,10 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -1304,75 +1283,6 @@
       </c>
       <c r="G8">
         <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>19330051920247</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>19330051920407</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>19330051920412</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
